--- a/data_sources/Setembro/amil_mensalidade_bronze.xlsx
+++ b/data_sources/Setembro/amil_mensalidade_bronze.xlsx
@@ -4499,7 +4499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4634,8 +4634,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4815,6 +4823,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF70AD47"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4976,10 +4990,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5327,7 +5342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5338,7 +5353,7 @@
   <dimension ref="A1:L588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,41 +5370,41 @@
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>1492</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -27908,13 +27923,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{426A5DD5-6E1B-4788-B690-816668929C4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8CDA4D-7616-4EDD-9262-FD80C3FBD6E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8929732-32FE-44C4-A92E-7895F51F4819}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42CF967C-65BB-4027-9186-A8A706EA3A21}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98767D15-AE71-495B-82D4-948A092265D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7830650F-B5C4-4F9A-8914-BF5050BBC9DC}"/>
 </file>